--- a/Reports/Hotel and Hospitality/Conclusion of Hotel and Hospitality.xlsx
+++ b/Reports/Hotel and Hospitality/Conclusion of Hotel and Hospitality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\108 Survey Project\Reports\Hotel and Hospitality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FD97C1-86C4-41C1-BB50-10CFB8FD85A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A045710-7449-408F-BBD5-F19F650CFA35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="128">
   <si>
     <t>Timestamp</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Tour guide (7 years experience)</t>
   </si>
   <si>
-    <t>Average of Housekeeper (4 - 6 years experience)</t>
-  </si>
-  <si>
     <t>Communication Skills</t>
   </si>
   <si>
@@ -406,6 +403,18 @@
   </si>
   <si>
     <t>Column15</t>
+  </si>
+  <si>
+    <t>Average of Tour guide (new graduate)</t>
+  </si>
+  <si>
+    <t>Average of Tour guide (1 - 3 years experience)</t>
+  </si>
+  <si>
+    <t>Average of Tour guide (4 - 6 years experience)</t>
+  </si>
+  <si>
+    <t>Average of Tour guide (7 years experience)</t>
   </si>
 </sst>
 </file>
@@ -940,11 +949,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee Timberlake" refreshedDate="43650.447022453707" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{5CDC47B0-561F-4748-8734-30C16219BD1E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee Timberlake" refreshedDate="43657.69916921296" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{5CDC47B0-561F-4748-8734-30C16219BD1E}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
-  <cacheFields count="47">
+  <cacheFields count="62">
     <cacheField name="Timestamp" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-06-12T12:00:19" maxDate="2019-06-25T19:01:13"/>
     </cacheField>
@@ -1084,7 +1093,52 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="What kind of skills does your Company or Organization require?" numFmtId="0">
-      <sharedItems longText="1"/>
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column1" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column2" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column3" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column4" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column5" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column6" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column7" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column8" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column9" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column10" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column11" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column12" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column13" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column14" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column15" numFmtId="0">
+      <sharedItems containsBlank="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1144,7 +1198,22 @@
     <s v="Waiter, IT, HR, Sales, Housekeeping, Receptionist, Engineers"/>
     <m/>
     <m/>
-    <s v="Communication Skills, Teamwork and Collaboration, Problem Solving, Self-Management and Initiative, Critical and Creative Thinking, Flexibility / Adaptability, Leadership / Management Skills, Self-confidence, Languages, Sales and Marketing Skills, Computer / IT Literacy, Time Management"/>
+    <s v="Communication Skills"/>
+    <s v=" Teamwork and Collaboration"/>
+    <s v=" Problem Solving"/>
+    <s v=" Self-Management and Initiative"/>
+    <s v=" Critical and Creative Thinking"/>
+    <s v=" Flexibility / Adaptability"/>
+    <s v=" Leadership / Management Skills"/>
+    <s v=" Self-confidence"/>
+    <s v=" Languages"/>
+    <s v=" Sales and Marketing Skills"/>
+    <s v=" Computer / IT Literacy"/>
+    <s v=" Time Management"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-12T12:00:19"/>
@@ -1193,7 +1262,22 @@
     <s v="ພ/ງຂາຍ, ພ/ງບັນຊີ"/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ, ທັກສະດ້ານແນວຄວາມຄິດສາກົນ, ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານການເວົ້າຕໍ່ໜ້າມວນຊົນ, ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈັດການເວລາ, ທັກສະດ້ານການຈູງໃຈ"/>
+    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ"/>
+    <s v=" ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ"/>
+    <s v=" ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ"/>
+    <s v=" ທັກສະດ້ານແນວຄວາມຄິດສາກົນ"/>
+    <s v=" ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <s v=" ທັກສະດ້ານການເວົ້າຕໍ່ໜ້າມວນຊົນ"/>
+    <s v=" ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v=" ທັກສະດ້ານການຈູງໃຈ"/>
   </r>
   <r>
     <d v="2019-06-12T12:52:29"/>
@@ -1242,7 +1326,22 @@
     <m/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ, ທັກສະດ້ານແນວຄວາມຄິດສາກົນ, ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານການເວົ້າຕໍ່ໜ້າມວນຊົນ, ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈັດການເວລາ, ທັກສະດ້ານການຈູງໃຈ"/>
+    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ"/>
+    <s v=" ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ"/>
+    <s v=" ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ"/>
+    <s v=" ທັກສະດ້ານແນວຄວາມຄິດສາກົນ"/>
+    <s v=" ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <s v=" ທັກສະດ້ານການເວົ້າຕໍ່ໜ້າມວນຊົນ"/>
+    <s v=" ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v=" ທັກສະດ້ານການຈູງໃຈ"/>
   </r>
   <r>
     <d v="2019-06-12T16:50:25"/>
@@ -1291,7 +1390,22 @@
     <s v="Reception and KItchen "/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ, ທັກສະດ້ານແນວຄວາມຄິດສາກົນ, ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານການເວົ້າຕໍ່ໜ້າມວນຊົນ, ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ"/>
+    <s v=" ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ"/>
+    <s v=" ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ"/>
+    <s v=" ທັກສະດ້ານແນວຄວາມຄິດສາກົນ"/>
+    <s v=" ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <s v=" ທັກສະດ້ານການເວົ້າຕໍ່ໜ້າມວນຊົນ"/>
+    <s v=" ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-25T14:11:10"/>
@@ -1340,7 +1454,22 @@
     <s v="ຜູ່ຈັດການຝ່າຍຂາຍ ແລະ ການຕະຫຼາດ, ອອກແບບກຣາຟິກ"/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານແນວຄວາມຄິດສາກົນ, ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ, ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ"/>
+    <s v=" ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ"/>
+    <s v=" ທັກສະດ້ານແນວຄວາມຄິດສາກົນ"/>
+    <s v=" ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ"/>
+    <s v=" ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <s v=" ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-25T19:01:13"/>
@@ -1389,15 +1518,30 @@
     <s v="ພະນັກງານຝ່າຍບຸກຄົນ, ພະນັກງານຝ່າຍບັນຊີ, ພໍ່ຄົວ, ການຕະຫຼາດ, ບໍລິການ, ທຳຄວາມສະອາດ"/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ, ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ, ທັກສະດ້ານການຈັດການເວລາ, ທັກສະດ້ານການຈູງໃຈ"/>
+    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ"/>
+    <s v=" ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ"/>
+    <s v=" ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ"/>
+    <s v=" ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v=" ທັກສະດ້ານການຈູງໃຈ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A2A4A5C6-84C7-449F-BE7B-49424661C605}" name="RawData" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="47">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A2A4A5C6-84C7-449F-BE7B-49424661C605}" name="RawData" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="62">
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1405,25 +1549,40 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1449,11 +1608,28 @@
   <rowItems count="1">
     <i/>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Housekeeper (4 - 6 years experience)" fld="7" subtotal="average" baseField="0" baseItem="1627535792"/>
+  <dataFields count="4">
+    <dataField name="Average of Tour guide (new graduate)" fld="37" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Average of Tour guide (1 - 3 years experience)" fld="38" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Average of Tour guide (4 - 6 years experience)" fld="39" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Average of Tour guide (7 years experience)" fld="40" subtotal="average" baseField="0" baseItem="1"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1835,25 +2011,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25391018-D03C-473C-A0BA-9AF2E3E27D91}">
-  <dimension ref="A3:A4"/>
+  <dimension ref="A3:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
-        <v>408.76744186046511</v>
+        <v>466.66666666666669</v>
+      </c>
+      <c r="B4" s="9">
+        <v>600</v>
+      </c>
+      <c r="C4" s="9">
+        <v>666.66666666666663</v>
+      </c>
+      <c r="D4" s="9">
+        <v>716.66666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -1868,7 +2064,7 @@
   </sheetPr>
   <dimension ref="A1:BS8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AU7" sqref="AU7:BF7"/>
     </sheetView>
@@ -2057,49 +2253,49 @@
         <v>10</v>
       </c>
       <c r="AV1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW1" t="s">
         <v>94</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>95</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>96</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>97</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>98</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>99</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>100</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>101</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>102</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>103</v>
       </c>
-      <c r="BF1" t="s">
-        <v>104</v>
-      </c>
       <c r="BG1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH1" t="s">
         <v>121</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>122</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>123</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2233,40 +2429,40 @@
         <v>17</v>
       </c>
       <c r="AU2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="BG2" s="2"/>
       <c r="BH2" s="2"/>
@@ -2405,52 +2601,52 @@
       <c r="AS3" s="5"/>
       <c r="AT3" s="5"/>
       <c r="AU3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AW3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AX3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BG3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="BJ3" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="BK3" s="5"/>
       <c r="BL3" s="5"/>
@@ -2594,52 +2790,52 @@
       <c r="AS4" s="5"/>
       <c r="AT4" s="5"/>
       <c r="AU4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AV4" s="4" t="s">
+      <c r="AW4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AW4" s="4" t="s">
+      <c r="AX4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AX4" s="4" t="s">
+      <c r="AY4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AY4" s="4" t="s">
+      <c r="AZ4" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AZ4" s="4" t="s">
+      <c r="BA4" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BA4" s="4" t="s">
+      <c r="BB4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BB4" s="4" t="s">
+      <c r="BC4" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BC4" s="4" t="s">
+      <c r="BD4" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BD4" s="4" t="s">
+      <c r="BE4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BE4" s="4" t="s">
+      <c r="BF4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BF4" s="4" t="s">
+      <c r="BG4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BG4" s="4" t="s">
+      <c r="BH4" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BH4" s="4" t="s">
+      <c r="BI4" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="BI4" s="4" t="s">
+      <c r="BJ4" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="BJ4" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="BK4" s="5"/>
       <c r="BL4" s="5"/>
@@ -2787,49 +2983,49 @@
       <c r="AS5" s="5"/>
       <c r="AT5" s="5"/>
       <c r="AU5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AV5" s="4" t="s">
+      <c r="AW5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AW5" s="4" t="s">
+      <c r="AX5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AX5" s="4" t="s">
+      <c r="AY5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AY5" s="4" t="s">
+      <c r="AZ5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AZ5" s="4" t="s">
+      <c r="BA5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BA5" s="4" t="s">
+      <c r="BB5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BB5" s="4" t="s">
+      <c r="BC5" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BC5" s="4" t="s">
+      <c r="BD5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BD5" s="4" t="s">
+      <c r="BE5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BE5" s="4" t="s">
+      <c r="BF5" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BF5" s="4" t="s">
+      <c r="BG5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BG5" s="4" t="s">
+      <c r="BH5" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BH5" s="4" t="s">
+      <c r="BI5" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="BI5" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="5"/>
@@ -2942,37 +3138,37 @@
       <c r="AS6" s="5"/>
       <c r="AT6" s="5"/>
       <c r="AU6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AV6" s="4" t="s">
+      <c r="AW6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AW6" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="AX6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AY6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AZ6" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="BA6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BB6" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="BC6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD6" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BD6" s="4" t="s">
+      <c r="BE6" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="BF6" s="4"/>
       <c r="BG6" s="4"/>
@@ -3149,37 +3345,37 @@
       <c r="AS7" s="5"/>
       <c r="AT7" s="5"/>
       <c r="AU7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV7" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AV7" s="4" t="s">
+      <c r="AW7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AW7" s="4" t="s">
+      <c r="AX7" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AX7" s="4" t="s">
+      <c r="AY7" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AY7" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="AZ7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BA7" s="4" t="s">
+      <c r="BB7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BB7" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="BC7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BD7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BE7" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="BE7" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="BF7" s="4"/>
       <c r="BG7" s="4"/>
